--- a/Dashboards-test/RIES.xlsx
+++ b/Dashboards-test/RIES.xlsx
@@ -26,7 +26,7 @@
     <x:definedName name="DatesKDR">'KDR Per Day'!$D$1:$Q$1</x:definedName>
     <x:definedName name="DatesXP">'XP Per Day'!$E$1:$R$1</x:definedName>
     <x:definedName name="PlayersKDR">'KDR Per Day'!$A$2:$Q$23</x:definedName>
-    <x:definedName name="PlayersXP">'XP Per Day'!$A$2:$P$23</x:definedName>
+    <x:definedName name="PlayersXP">'XP Per Day'!$A$2:$R$23</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="191029"/>
   <x:extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <x:si>
     <x:t>Player</x:t>
   </x:si>
@@ -73,12 +73,12 @@
     <x:t>krisa</x:t>
   </x:si>
   <x:si>
+    <x:t>coolDaze</x:t>
+  </x:si>
+  <x:si>
     <x:t>schlorenz</x:t>
   </x:si>
   <x:si>
-    <x:t>coolDaze</x:t>
-  </x:si>
-  <x:si>
     <x:t>kingjohn</x:t>
   </x:si>
   <x:si>
@@ -124,7 +124,7 @@
     <x:t>Average KDR</x:t>
   </x:si>
   <x:si>
-    <x:t>8,0 (64/8)</x:t>
+    <x:t>3,4 (340/100)</x:t>
   </x:si>
   <x:si>
     <x:t>- (/)</x:t>
@@ -133,6 +133,63 @@
     <x:t>0,0 (0/0)</x:t>
   </x:si>
   <x:si>
+    <x:t>1,4 (7/5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,2 (53/24)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,7 (22/6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,0 (27/9)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,1 (113/36)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13,0 (78/6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,7 (26/7)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (14/7)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,2 (1116/353)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,6 (115/44)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,2 (1/4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,4 (128/38)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,6 (266/74)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,5 (276/79)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9,3 (56/6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (21/12)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,4 (65/19)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,4 (188/77)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,8 (80/29)</x:t>
+  </x:si>
+  <x:si>
     <x:t>14,0 (14/1)</x:t>
   </x:si>
   <x:si>
@@ -142,61 +199,10 @@
     <x:t>1,0 (1/1)</x:t>
   </x:si>
   <x:si>
-    <x:t>3,5 (326/93)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,4 (7/5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,2 (53/24)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,7 (22/6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,0 (27/9)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,1 (113/36)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13,0 (78/6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,7 (26/7)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,2 (1116/353)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,6 (115/44)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,2 (1/4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,4 (128/38)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,6 (266/74)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,5 (276/79)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9,3 (56/6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (21/12)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,4 (65/19)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,4 (188/77)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,2 (382/170)</x:t>
+    <x:t>0,8 (16/21)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,1 (465/219)</x:t>
   </x:si>
   <x:si>
     <x:t>0,9 (14/15)</x:t>
@@ -214,7 +220,10 @@
     <x:t>1,2 (15/13)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,1 (521/249)</x:t>
+    <x:t>1,7 (83/49)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,1 (601/286)</x:t>
   </x:si>
   <x:si>
     <x:t>1,6 (83/51)</x:t>
@@ -229,22 +238,31 @@
     <x:t>2,8 (266/96)</x:t>
   </x:si>
   <x:si>
+    <x:t>2,2 (80/37)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (45/28)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,9 (29/15)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,7 (8/3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,8 (8/10)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (21/16)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2 (66/55)</x:t>
+  </x:si>
+  <x:si>
     <x:t>1,6 (39/24)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,6 (45/28)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,9 (29/15)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,7 (8/3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,8 (8/10)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (21/16)</x:t>
+    <x:t>0,9 (27/31)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -724,7 +742,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="15" t="n">
-        <x:v>5603.25686363636</x:v>
+        <x:v>4741.21734615384</x:v>
       </x:c>
       <x:c r="D2" s="15" t="n">
         <x:v>623842.064458331</x:v>
@@ -762,6 +780,12 @@
       </x:c>
       <x:c r="P2" s="16" t="n">
         <x:v>12839.6758333333</x:v>
+      </x:c>
+      <x:c r="Q2" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R2" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:146" x14ac:dyDescent="0.25">
@@ -769,10 +793,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="15" t="n">
-        <x:v>2629.70718181817</x:v>
+        <x:v>2550.47609134615</x:v>
       </x:c>
       <x:c r="D3" s="15" t="n">
-        <x:v>206815.636791666</x:v>
+        <x:v>211045.046979166</x:v>
       </x:c>
       <x:c r="E3" s="16" t="s"/>
       <x:c r="F3" s="16" t="n">
@@ -807,6 +831,12 @@
       </x:c>
       <x:c r="P3" s="16" t="n">
         <x:v>16514.9098541667</x:v>
+      </x:c>
+      <x:c r="Q3" s="16" t="n">
+        <x:v>4229.41018749998</x:v>
+      </x:c>
+      <x:c r="R3" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:146">
@@ -814,10 +844,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="15" t="n">
-        <x:v>2251.08099621212</x:v>
+        <x:v>1951.49216666667</x:v>
       </x:c>
       <x:c r="D4" s="15" t="n">
-        <x:v>212836.3835</x:v>
+        <x:v>213443.890708333</x:v>
       </x:c>
       <x:c r="E4" s="16" t="s"/>
       <x:c r="F4" s="16" t="n">
@@ -852,6 +882,12 @@
       </x:c>
       <x:c r="P4" s="16" t="n">
         <x:v>2807.239</x:v>
+      </x:c>
+      <x:c r="Q4" s="16" t="n">
+        <x:v>607.507208333351</x:v>
+      </x:c>
+      <x:c r="R4" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:146">
@@ -859,10 +895,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="15" t="n">
-        <x:v>1322.02412121211</x:v>
+        <x:v>1301.80906410256</x:v>
       </x:c>
       <x:c r="D5" s="15" t="n">
-        <x:v>158452.0416875</x:v>
+        <x:v>160833.2941875</x:v>
       </x:c>
       <x:c r="E5" s="16" t="s"/>
       <x:c r="F5" s="16" t="n">
@@ -897,6 +933,12 @@
       </x:c>
       <x:c r="P5" s="16" t="n">
         <x:v>381.480250000022</x:v>
+      </x:c>
+      <x:c r="Q5" s="16" t="n">
+        <x:v>2381.25250000003</x:v>
+      </x:c>
+      <x:c r="R5" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:146">
@@ -904,10 +946,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="15" t="n">
-        <x:v>447.377124999997</x:v>
+        <x:v>387.200108333331</x:v>
       </x:c>
       <x:c r="D6" s="15" t="n">
-        <x:v>7279.57816666666</x:v>
+        <x:v>7873.44733333333</x:v>
       </x:c>
       <x:c r="E6" s="16" t="s"/>
       <x:c r="F6" s="16" t="s"/>
@@ -927,16 +969,22 @@
       <x:c r="P6" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q6" s="16" t="n">
+        <x:v>593.869166666667</x:v>
+      </x:c>
+      <x:c r="R6" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="7" spans="1:146">
       <x:c r="B7" s="14" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C7" s="15" t="n">
-        <x:v>287.091727272724</x:v>
+        <x:v>298.374201923073</x:v>
       </x:c>
       <x:c r="D7" s="15" t="n">
-        <x:v>147571.132249999</x:v>
+        <x:v>37511.1118958331</x:v>
       </x:c>
       <x:c r="E7" s="16" t="s"/>
       <x:c r="F7" s="16" t="n">
@@ -946,7 +994,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="16" t="n">
-        <x:v>2836.829</x:v>
+        <x:v>475.278124999997</x:v>
       </x:c>
       <x:c r="I7" s="16" t="n">
         <x:v>0</x:v>
@@ -955,22 +1003,28 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K7" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>2465.45824999997</x:v>
       </x:c>
       <x:c r="L7" s="16" t="n">
-        <x:v>192.411666666681</x:v>
+        <x:v>19.8173333333325</x:v>
       </x:c>
       <x:c r="M7" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N7" s="16" t="n">
-        <x:v>128.768333333282</x:v>
+        <x:v>32.5091666666631</x:v>
       </x:c>
       <x:c r="O7" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P7" s="16" t="n">
         <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q7" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R7" s="16" t="n">
+        <x:v>885.801749999991</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:146">
@@ -978,10 +1032,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="15" t="n">
-        <x:v>272.096624999997</x:v>
+        <x:v>242.923769230766</x:v>
       </x:c>
       <x:c r="D8" s="15" t="n">
-        <x:v>36625.3101458331</x:v>
+        <x:v>147571.132249999</x:v>
       </x:c>
       <x:c r="E8" s="16" t="s"/>
       <x:c r="F8" s="16" t="n">
@@ -991,7 +1045,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="16" t="n">
-        <x:v>475.278124999997</x:v>
+        <x:v>2836.829</x:v>
       </x:c>
       <x:c r="I8" s="16" t="n">
         <x:v>0</x:v>
@@ -1000,21 +1054,27 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K8" s="16" t="n">
-        <x:v>2465.45824999997</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L8" s="16" t="n">
-        <x:v>19.8173333333325</x:v>
+        <x:v>192.411666666681</x:v>
       </x:c>
       <x:c r="M8" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N8" s="16" t="n">
-        <x:v>32.5091666666631</x:v>
+        <x:v>128.768333333282</x:v>
       </x:c>
       <x:c r="O8" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P8" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q8" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R8" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -1023,7 +1083,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="15" t="n">
-        <x:v>73.1344261363635</x:v>
+        <x:v>61.8829759615384</x:v>
       </x:c>
       <x:c r="D9" s="15" t="n">
         <x:v>61394.3543541665</x:v>
@@ -1060,6 +1120,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P9" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q9" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R9" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -1068,7 +1134,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C10" s="15" t="n">
-        <x:v>64.3824242424229</x:v>
+        <x:v>54.4774358974348</x:v>
       </x:c>
       <x:c r="D10" s="15" t="n">
         <x:v>7506.14474999999</x:v>
@@ -1105,6 +1171,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P10" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q10" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R10" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -1152,6 +1224,12 @@
       <x:c r="P11" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q11" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R11" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="12" spans="1:146">
       <x:c r="B12" s="14" t="s">
@@ -1195,6 +1273,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P12" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q12" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R12" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -1220,7 +1304,9 @@
       <x:c r="N13" s="16" t="s"/>
       <x:c r="O13" s="16" t="s"/>
       <x:c r="P13" s="16" t="s"/>
-      <x:c r="AC13" s="17" t="s"/>
+      <x:c r="Q13" s="16" t="s"/>
+      <x:c r="R13" s="16" t="s"/>
+      <x:c r="AE13" s="17" t="s"/>
     </x:row>
     <x:row r="14" spans="1:146" x14ac:dyDescent="0.25">
       <x:c r="B14" s="14" t="s">
@@ -1266,10 +1352,16 @@
       <x:c r="P14" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="Z14" s="16" t="s"/>
-      <x:c r="AA14" s="16" t="s"/>
+      <x:c r="Q14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="AB14" s="16" t="s"/>
       <x:c r="AC14" s="16" t="s"/>
+      <x:c r="AD14" s="16" t="s"/>
+      <x:c r="AE14" s="16" t="s"/>
     </x:row>
     <x:row r="15" spans="1:146">
       <x:c r="B15" s="14" t="s">
@@ -1315,6 +1407,12 @@
       <x:c r="P15" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q15" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R15" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="16" spans="1:146">
       <x:c r="B16" s="14" t="s">
@@ -1360,6 +1458,12 @@
       <x:c r="P16" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="17" spans="1:146">
       <x:c r="B17" s="14" t="s">
@@ -1405,6 +1509,12 @@
       <x:c r="P17" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q17" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R17" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="18" spans="1:146">
       <x:c r="B18" s="14" t="s">
@@ -1448,6 +1558,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P18" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q18" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R18" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -1473,6 +1589,8 @@
       <x:c r="N19" s="16" t="s"/>
       <x:c r="O19" s="16" t="s"/>
       <x:c r="P19" s="16" t="s"/>
+      <x:c r="Q19" s="16" t="s"/>
+      <x:c r="R19" s="16" t="s"/>
     </x:row>
     <x:row r="20" spans="1:146">
       <x:c r="B20" s="14" t="s">
@@ -1518,6 +1636,12 @@
       <x:c r="P20" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q20" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R20" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="21" spans="1:146">
       <x:c r="B21" s="14" t="s">
@@ -1561,6 +1685,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P21" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q21" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R21" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -1586,6 +1716,8 @@
       <x:c r="N22" s="16" t="s"/>
       <x:c r="O22" s="16" t="s"/>
       <x:c r="P22" s="16" t="s"/>
+      <x:c r="Q22" s="16" t="s"/>
+      <x:c r="R22" s="16" t="s"/>
     </x:row>
   </x:sheetData>
   <x:dataConsolidate/>
@@ -1675,7 +1807,7 @@
     </x:row>
     <x:row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <x:c r="B2" s="14" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C2" s="18" t="s">
         <x:v>25</x:v>
@@ -1687,48 +1819,48 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F2" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G2" s="19" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H2" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I2" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J2" s="19" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="K2" s="19" t="s">
-        <x:v>30</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="L2" s="19" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="M2" s="19" t="s">
-        <x:v>30</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="N2" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="O2" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="P2" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="Q2" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <x:c r="B3" s="14" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C3" s="18" t="s">
-        <x:v>31</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D3" s="19" t="s">
         <x:v>26</x:v>
@@ -1737,48 +1869,48 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F3" s="19" t="s">
-        <x:v>32</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G3" s="19" t="s">
-        <x:v>33</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H3" s="19" t="s">
-        <x:v>34</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I3" s="19" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J3" s="19" t="s">
-        <x:v>36</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K3" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="L3" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="M3" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N3" s="19" t="s">
-        <x:v>37</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="O3" s="19" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="P3" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="Q3" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:36">
       <x:c r="B4" s="14" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C4" s="18" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D4" s="19" t="s">
         <x:v>26</x:v>
@@ -1790,37 +1922,37 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G4" s="19" t="s">
-        <x:v>40</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H4" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I4" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J4" s="19" t="s">
-        <x:v>43</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="K4" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="L4" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="M4" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N4" s="19" t="s">
-        <x:v>47</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O4" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="P4" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="Q4" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:36">
@@ -1828,7 +1960,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="18" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D5" s="19" t="s">
         <x:v>26</x:v>
@@ -1837,22 +1969,22 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F5" s="19" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G5" s="19" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H5" s="19" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="I5" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J5" s="19" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="K5" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="L5" s="19" t="s">
         <x:v>27</x:v>
@@ -1864,13 +1996,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="O5" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="P5" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="Q5" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:36">
@@ -1878,7 +2010,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>55</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D6" s="19" t="s">
         <x:v>26</x:v>
@@ -1890,7 +2022,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G6" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H6" s="19" t="s">
         <x:v>27</x:v>
@@ -1905,80 +2037,80 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="L6" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="M6" s="19" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="N6" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="O6" s="19" t="s">
-        <x:v>59</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="P6" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="Q6" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:36">
       <x:c r="B7" s="14" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C7" s="18" t="s">
-        <x:v>60</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D7" s="19" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="E7" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F7" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G7" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H7" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I7" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J7" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K7" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="L7" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="M7" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="N7" s="19" t="s">
-        <x:v>60</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O7" s="19" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="P7" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="Q7" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:36">
       <x:c r="B8" s="14" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="18" t="s">
-        <x:v>61</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D8" s="19" t="s">
         <x:v>26</x:v>
@@ -1990,7 +2122,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G8" s="19" t="s">
-        <x:v>62</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H8" s="19" t="s">
         <x:v>27</x:v>
@@ -2002,13 +2134,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="K8" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="L8" s="19" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="M8" s="19" t="s">
-        <x:v>64</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="N8" s="19" t="s">
         <x:v>27</x:v>
@@ -2017,60 +2149,60 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="P8" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="Q8" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:36">
       <x:c r="B9" s="14" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>65</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D9" s="19" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="E9" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F9" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G9" s="19" t="s">
-        <x:v>65</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H9" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I9" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J9" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K9" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="L9" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="M9" s="19" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="N9" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="O9" s="19" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="P9" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="Q9" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:36">
@@ -2078,7 +2210,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
-        <x:v>64</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D10" s="19" t="s">
         <x:v>26</x:v>
@@ -2108,7 +2240,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="M10" s="19" t="s">
-        <x:v>64</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="N10" s="19" t="s">
         <x:v>27</x:v>
@@ -2117,10 +2249,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="P10" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="Q10" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:36">
@@ -2167,10 +2299,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="P11" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="Q11" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:36">
@@ -2217,10 +2349,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="P12" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="Q12" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:36">
@@ -2317,10 +2449,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="P14" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="Q14" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:36">
@@ -2367,10 +2499,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="P15" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="Q15" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:36">
@@ -2417,10 +2549,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="P16" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="Q16" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:36">
@@ -2467,10 +2599,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="P17" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="Q17" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:36">
@@ -2517,10 +2649,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="P18" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="Q18" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:36">
@@ -2617,10 +2749,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="P20" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="Q20" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:36">
@@ -2667,10 +2799,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="P21" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="Q21" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:36">
